--- a/medicine/Enfance/Alberto_Manzi/Alberto_Manzi.xlsx
+++ b/medicine/Enfance/Alberto_Manzi/Alberto_Manzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alberto Manzi (né à Rome le 3 novembre 1924 et mort à Pitigliano, 4 décembre 1997)  est un pédagogue, écrivain et homme politique italien[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alberto Manzi (né à Rome le 3 novembre 1924 et mort à Pitigliano, 4 décembre 1997)  est un pédagogue, écrivain et homme politique italien.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le maître Alberto Manzi, appelé « Maestro Manzi » en Italie, né à Rome en 1924, a aidé à améliorer le cas de l’illettrisme d’après-guerre en Italie entre 1960 et 1968. Détenteur d’un diplôme en biologie, pédagogie et philosophie, il a révolutionné une partie de l’enseignement en travaillant avec des adultes dans un décor ressemblant à une classe de primaire. Il fait partie de ceux qui ont combattu l’illettrisme avec la diffusion de son émission télévisée « Non è mai troppo tardi » de 1960 à 1968.
-Alberto Manzi a travaillé en tant qu'éducateur dans une maison de correction pour adolescent à Rome avant de devenir maître d'école[1].
-L'émission télévisée «Non è mai troppo tardi» qui signifie qu'« il n'est jamais trop tard » retransmettait des cours  avec des concepts révolutionnaires concernant les méthodes didactiques de l'époque. Alberto Manzi changeait les scripts qui lui étaient donnés et il improvisait les cours qu'il devait donner[2].
+Alberto Manzi a travaillé en tant qu'éducateur dans une maison de correction pour adolescent à Rome avant de devenir maître d'école.
+L'émission télévisée «Non è mai troppo tardi» qui signifie qu'« il n'est jamais trop tard » retransmettait des cours  avec des concepts révolutionnaires concernant les méthodes didactiques de l'époque. Alberto Manzi changeait les scripts qui lui étaient donnés et il improvisait les cours qu'il devait donner.
 L’émission fut retransmise pendant près d'une décennie et a suscité de l'intérêt. Près d'un demi million de spectateurs ont pu acquérir des connaissances semblables à celles qu'ils ont acquis en école primaire.
-Une fois l'émission terminée, Alberto Manzi s'est consacré à l'enseignement à plein temps devenant maire de Pitigliano. À Rome tout comme dans d'autres villes italiennes plusieurs écoles ont été fondées en son honneur[3].
+Une fois l'émission terminée, Alberto Manzi s'est consacré à l'enseignement à plein temps devenant maire de Pitigliano. À Rome tout comme dans d'autres villes italiennes plusieurs écoles ont été fondées en son honneur.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ouvrages traduits en français
 Le Castor Grogh et sa tribu, Bourrelier, 1953 ; et rééd.
@@ -595,9 +611,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1956 : (international) « Honnor List »[4], de l' IBBY, pour Orzowei (Isa, enfant de la forêt)</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1956 : (international) « Honnor List », de l' IBBY, pour Orzowei (Isa, enfant de la forêt)</t>
         </is>
       </c>
     </row>
